--- a/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
+++ b/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T13:20:42+00:00</t>
+    <t>2022-05-23T17:22:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
+++ b/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T17:22:42+00:00</t>
+    <t>2022-05-26T15:10:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -117,40 +117,49 @@
     <t>Count</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>20053000</t>
+  </si>
+  <si>
+    <t>Oral use</t>
+  </si>
+  <si>
+    <t>Oral Use</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>10220XXX</t>
+  </si>
+  <si>
+    <t>Capsule</t>
+  </si>
+  <si>
+    <t>10220000</t>
+  </si>
+  <si>
+    <t>Tablet</t>
+  </si>
+  <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>20053000</t>
-  </si>
-  <si>
-    <t>Oral use</t>
-  </si>
-  <si>
-    <t>Oral Use</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>10220000</t>
-  </si>
-  <si>
-    <t>Tablet</t>
   </si>
   <si>
     <t>10318000</t>
@@ -473,7 +482,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -523,7 +532,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s" s="2">
         <v>46</v>
@@ -533,6 +542,20 @@
       </c>
       <c r="D4" t="s" s="2">
         <v>47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
+++ b/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T15:10:33+00:00</t>
+    <t>2022-05-26T16:44:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
+++ b/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T16:44:55+00:00</t>
+    <t>2022-05-29T06:24:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
+++ b/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-29T06:24:54+00:00</t>
+    <t>2022-05-29T08:18:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
+++ b/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-29T08:18:51+00:00</t>
+    <t>2022-05-29T08:21:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
+++ b/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-29T08:21:05+00:00</t>
+    <t>2022-05-31T09:58:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
+++ b/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T09:58:25+00:00</t>
+    <t>2022-05-31T10:10:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
+++ b/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T10:10:02+00:00</t>
+    <t>2022-05-31T22:14:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
+++ b/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T22:14:36+00:00</t>
+    <t>2022-06-01T13:57:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
+++ b/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T13:57:06+00:00</t>
+    <t>2022-06-01T15:56:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
+++ b/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T15:56:45+00:00</t>
+    <t>2022-06-01T15:57:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
+++ b/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T15:57:53+00:00</t>
+    <t>2022-06-06T08:53:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
+++ b/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T08:53:46+00:00</t>
+    <t>2022-06-06T12:38:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
+++ b/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T12:38:00+00:00</t>
+    <t>2022-06-07T12:41:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
+++ b/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-07T12:41:09+00:00</t>
+    <t>2022-06-07T12:51:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
+++ b/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-07T12:51:30+00:00</t>
+    <t>2022-06-08T14:01:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
+++ b/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-08T14:01:48+00:00</t>
+    <t>2022-06-10T09:36:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
+++ b/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-10T09:36:45+00:00</t>
+    <t>2022-06-13T16:57:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
+++ b/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-13T16:57:46+00:00</t>
+    <t>2022-06-28T09:17:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
+++ b/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://medigree.net/eu/fhir/medigree/CodeSystem/dose-form-ontology-cs</t>
+    <t>http://medigree.net/eu/fhir/mpd/CodeSystem/dose-form-ontology-cs</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T09:17:31+00:00</t>
+    <t>2022-06-28T12:38:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
+++ b/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T12:38:26+00:00</t>
+    <t>2022-09-30T13:06:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
+++ b/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-30T13:06:24+00:00</t>
+    <t>2022-10-08T08:36:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
+++ b/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:36:27+00:00</t>
+    <t>2022-10-08T08:41:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
+++ b/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:41:45+00:00</t>
+    <t>2022-10-08T08:44:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
+++ b/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:44:11+00:00</t>
+    <t>2022-10-08T08:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
+++ b/branches/master/CodeSystem-dose-form-ontology-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:47:47+00:00</t>
+    <t>2022-10-08T09:43:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
